--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A62588D-351C-455E-A8B6-11B033BEA499}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECB73EB-2287-46BA-A637-5D32057E3108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="96">
   <si>
     <t>*</t>
   </si>
@@ -231,28 +231,10 @@
     <t>J01</t>
   </si>
   <si>
-    <t>#c6819f</t>
-  </si>
-  <si>
-    <t>good color for outlaw</t>
-  </si>
-  <si>
     <t>J03</t>
   </si>
   <si>
-    <t>Rooms to fix"</t>
-  </si>
-  <si>
-    <t>SL_D03</t>
-  </si>
-  <si>
-    <t>water level</t>
-  </si>
-  <si>
     <t>3,4</t>
-  </si>
-  <si>
-    <t>SL_A13</t>
   </si>
   <si>
     <t>Drain</t>
@@ -693,55 +675,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>212026</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>165401</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{159F855B-1F86-4489-9DAE-2343143D8EE1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1238250" y="21002625"/>
-          <a:ext cx="18285714" cy="10285714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1007,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H60" zoomScale="64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD75" sqref="AD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1076,7 +1009,7 @@
       <c r="BC1" s="8"/>
       <c r="BD1" s="8"/>
       <c r="BE1" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="BF1" s="8"/>
       <c r="BG1" s="8"/>
@@ -2224,7 +2157,7 @@
       <c r="BD13" s="8"/>
       <c r="BE13" s="8"/>
       <c r="BF13" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="BG13" s="8"/>
       <c r="BH13" s="8"/>
@@ -2425,7 +2358,7 @@
       <c r="BD15" s="8"/>
       <c r="BE15" s="8"/>
       <c r="BF15" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="BG15" s="8"/>
       <c r="BH15" s="8"/>
@@ -2620,7 +2553,7 @@
       <c r="BD17" s="8"/>
       <c r="BE17" s="8"/>
       <c r="BF17" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="BG17" s="8"/>
       <c r="BH17" s="8"/>
@@ -7505,7 +7438,7 @@
       <c r="AR60" s="8"/>
       <c r="AS60" s="8"/>
       <c r="AT60" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AU60" s="8"/>
       <c r="AV60" s="8"/>
@@ -9653,13 +9586,13 @@
         <v>0</v>
       </c>
       <c r="AC71" s="19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AD71" s="8" t="s">
         <v>0</v>
       </c>
       <c r="AE71" s="19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AH71" s="32"/>
       <c r="AI71" s="34"/>
@@ -9874,13 +9807,13 @@
         <v>0</v>
       </c>
       <c r="AF72" s="19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AG72" s="8" t="s">
         <v>0</v>
       </c>
       <c r="AH72" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AI72" s="32"/>
       <c r="AJ72" s="32"/>
@@ -9895,9 +9828,7 @@
       <c r="AR72" s="11"/>
       <c r="AS72" s="11"/>
       <c r="AT72" s="11"/>
-      <c r="AU72" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="AU72" s="8"/>
       <c r="AV72" s="11"/>
       <c r="AW72" s="11"/>
       <c r="AX72" s="11"/>
@@ -10094,7 +10025,7 @@
       <c r="Z73" s="8"/>
       <c r="AA73" s="8"/>
       <c r="AC73" s="19" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AE73" s="8"/>
       <c r="AF73" s="8" t="s">
@@ -10115,9 +10046,7 @@
       <c r="AR73" s="11"/>
       <c r="AS73" s="11"/>
       <c r="AT73" s="11"/>
-      <c r="AU73" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="AU73" s="8"/>
       <c r="AV73" s="11"/>
       <c r="AW73" s="11"/>
       <c r="AX73" s="11"/>
@@ -10318,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="AD74" s="19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AE74" s="8" t="s">
         <v>58</v>
@@ -10532,13 +10461,13 @@
         <v>0</v>
       </c>
       <c r="AE75" s="19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AF75" s="8" t="s">
         <v>0</v>
       </c>
       <c r="AG75" s="19" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AH75" s="8" t="s">
         <v>0</v>
@@ -10957,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T77" s="3"/>
       <c r="U77" s="3"/>
@@ -12677,10 +12606,10 @@
       <c r="BL85" s="8"/>
       <c r="BM85" s="8"/>
       <c r="BN85" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="BO85" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="BP85" s="14"/>
       <c r="BQ85" s="8"/>
@@ -13082,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="AT87" s="22" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AU87" s="8"/>
       <c r="AV87" s="8"/>
@@ -13115,7 +13044,7 @@
       <c r="BM87" s="8"/>
       <c r="BN87" s="8"/>
       <c r="BO87" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="BP87" s="8"/>
       <c r="BQ87" s="8"/>
@@ -13348,12 +13277,12 @@
         <v>0</v>
       </c>
       <c r="BK88" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="BL88" s="8"/>
       <c r="BM88" s="8"/>
       <c r="BN88" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="BO88" s="14"/>
       <c r="BP88" s="8"/>
@@ -13780,7 +13709,7 @@
       <c r="BH90" s="8"/>
       <c r="BI90" s="8"/>
       <c r="BK90" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="BM90" s="8"/>
       <c r="BN90" s="8"/>
@@ -13794,9 +13723,7 @@
       <c r="BV90" s="8"/>
       <c r="BW90" s="8"/>
       <c r="BX90" s="8"/>
-      <c r="BY90" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="BY90" s="8"/>
       <c r="BZ90" s="8"/>
       <c r="CA90" s="8"/>
       <c r="CB90" s="8"/>
@@ -13994,13 +13921,13 @@
         <v>1</v>
       </c>
       <c r="BC91" s="14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD91" s="2" t="s">
         <v>58</v>
       </c>
       <c r="BE91" s="29" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="BF91" s="29"/>
       <c r="BG91" s="29"/>
@@ -14023,13 +13950,9 @@
       <c r="BV91" s="8"/>
       <c r="BW91" s="8"/>
       <c r="BX91" s="8"/>
-      <c r="BY91" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="BY91" s="8"/>
       <c r="BZ91" s="8"/>
-      <c r="CA91" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="CA91" s="8"/>
       <c r="CB91" s="8"/>
       <c r="CC91" s="8"/>
       <c r="CD91" s="8"/>
@@ -14202,7 +14125,7 @@
       <c r="AR92" s="8"/>
       <c r="AS92" s="8"/>
       <c r="AT92" s="22" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AU92" s="8"/>
       <c r="AV92" s="8"/>
@@ -14233,9 +14156,7 @@
       <c r="BV92" s="8"/>
       <c r="BW92" s="8"/>
       <c r="BX92" s="8"/>
-      <c r="BY92" s="8" t="s">
-        <v>75</v>
-      </c>
+      <c r="BY92" s="8"/>
       <c r="BZ92" s="8"/>
       <c r="CA92" s="8"/>
       <c r="CB92" s="8"/>
@@ -14412,7 +14333,7 @@
       <c r="AR93" s="8"/>
       <c r="AS93" s="8"/>
       <c r="AT93" s="22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AU93" s="16" t="s">
         <v>42</v>
@@ -14423,14 +14344,14 @@
       <c r="AY93" s="8"/>
       <c r="AZ93" s="8"/>
       <c r="BA93" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="BB93" s="29"/>
       <c r="BC93" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BD93" s="29" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="BE93" s="29"/>
       <c r="BF93" s="29"/>
@@ -14441,7 +14362,7 @@
       </c>
       <c r="BJ93" s="14"/>
       <c r="BK93" s="29" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="BL93" s="14"/>
       <c r="BM93" s="8" t="s">
@@ -14657,7 +14578,7 @@
       <c r="BL94" s="8"/>
       <c r="BM94" s="8"/>
       <c r="BN94" s="29" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="BO94" s="14"/>
       <c r="BP94" s="14"/>
@@ -14848,7 +14769,7 @@
       <c r="AY95" s="8"/>
       <c r="AZ95" s="8"/>
       <c r="BA95" s="30" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="BB95" s="8"/>
       <c r="BC95" s="8"/>
@@ -15051,7 +14972,7 @@
         <v>0</v>
       </c>
       <c r="AV96" s="22" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AW96" s="8"/>
       <c r="AX96" s="8"/>
@@ -15065,7 +14986,7 @@
       <c r="BF96" s="7"/>
       <c r="BG96" s="8"/>
       <c r="BH96" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="BI96" s="8" t="s">
         <v>0</v>
@@ -15893,7 +15814,7 @@
       <c r="AT100" s="8"/>
       <c r="AU100" s="8"/>
       <c r="AV100" s="22" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AW100" s="8"/>
       <c r="AX100" s="8"/>
@@ -29831,6 +29752,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>